--- a/Excel/8. Advance Filters/Advanced+Filters.xlsx
+++ b/Excel/8. Advance Filters/Advanced+Filters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\8. Advance Filters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E7A2D9-F108-4504-BD1E-9AB06E4DB661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD07FB-9F05-4B27-B0A1-137835B19612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{29745A60-A6D0-4A7B-AF84-F627A3EF9D41}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{29745A60-A6D0-4A7B-AF84-F627A3EF9D41}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
@@ -32,13 +32,13 @@
     <definedName name="_xlnm.Criteria" localSheetId="4">Between!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">OR!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'Simple Example'!$K$10:$K$11</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="5">Wildcard!#REF!</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">Wildcard!$M$13:$N$14</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">AND!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">Between!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="3">OR!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">'Simple Example'!$K$14:$S$14</definedName>
     <definedName name="_xlnm.Extract" localSheetId="6">Unique!#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="5">Wildcard!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">Wildcard!$L$16:$U$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10605" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10643" uniqueCount="637">
   <si>
     <t>Product ID</t>
   </si>
@@ -1970,6 +1970,9 @@
   <si>
     <t>Que: Filter out all sales transactions that were made through Bank Transfer and have 'AN' in their customer ID.</t>
   </si>
+  <si>
+    <t>*AN*</t>
+  </si>
 </sst>
 </file>
 
@@ -11352,7 +11355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85640932-4A1C-4F8F-9954-AAD3F1012524}">
   <dimension ref="A1:T299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+    <sheetView topLeftCell="H8" workbookViewId="0">
       <selection activeCell="O15" sqref="O15:O31"/>
     </sheetView>
   </sheetViews>
@@ -20600,7 +20603,7 @@
   <dimension ref="A1:W299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46825,7 +46828,7 @@
   <dimension ref="A1:W299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N6"/>
+      <selection activeCell="M17" sqref="M17:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46841,8 +46844,8 @@
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -47273,7 +47276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>48</v>
       </c>
@@ -47305,6 +47308,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
@@ -47338,6 +47347,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="M14" t="s">
+        <v>636</v>
+      </c>
+      <c r="N14" s="10" t="str">
+        <f>"=Bank Transfer"</f>
+        <v>=Bank Transfer</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -47372,7 +47388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
@@ -47404,8 +47420,38 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
@@ -47437,8 +47483,38 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="11">
+        <v>45044</v>
+      </c>
+      <c r="P17" s="11">
+        <v>45047</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>22558</v>
+      </c>
+      <c r="R17" s="10">
+        <v>5</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>62</v>
       </c>
@@ -47470,8 +47546,38 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="11">
+        <v>44840</v>
+      </c>
+      <c r="P18" s="11">
+        <v>44845</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>57208</v>
+      </c>
+      <c r="R18" s="10">
+        <v>2</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>64</v>
       </c>
@@ -47503,8 +47609,38 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="11">
+        <v>43497</v>
+      </c>
+      <c r="P19" s="11">
+        <v>43504</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>48839</v>
+      </c>
+      <c r="R19" s="10">
+        <v>4</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U19" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>66</v>
       </c>
@@ -47536,8 +47672,38 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="11">
+        <v>45031</v>
+      </c>
+      <c r="P20" s="11">
+        <v>45032</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>19635</v>
+      </c>
+      <c r="R20" s="10">
+        <v>5</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>68</v>
       </c>
@@ -47569,8 +47735,38 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="11">
+        <v>44394</v>
+      </c>
+      <c r="P21" s="11">
+        <v>44395</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>31423</v>
+      </c>
+      <c r="R21" s="10">
+        <v>2</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>70</v>
       </c>
@@ -47603,7 +47799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>72</v>
       </c>
@@ -47636,7 +47832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
@@ -47669,7 +47865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>76</v>
       </c>
@@ -47702,7 +47898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>79</v>
       </c>
@@ -47735,7 +47931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>82</v>
       </c>
@@ -47768,7 +47964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>84</v>
       </c>
@@ -47801,7 +47997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>86</v>
       </c>
@@ -47834,7 +48030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>88</v>
       </c>
@@ -47867,7 +48063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>90</v>
       </c>
@@ -47900,7 +48096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>92</v>
       </c>
@@ -56756,8 +56952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C4277D-1B5A-4CA5-8736-5AD285AD8D38}">
   <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
